--- a/testData/MoneyControlData.xlsx
+++ b/testData/MoneyControlData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -574,7 +579,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="8">
+      <c r="H2" t="s" s="13">
         <v>13</v>
       </c>
     </row>
@@ -600,7 +605,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="9">
+      <c r="H3" t="s" s="14">
         <v>13</v>
       </c>
     </row>
@@ -626,7 +631,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" t="s" s="15">
         <v>13</v>
       </c>
     </row>
@@ -652,7 +657,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="11">
+      <c r="H5" t="s" s="16">
         <v>13</v>
       </c>
     </row>
@@ -678,7 +683,7 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="12">
+      <c r="H6" t="s" s="17">
         <v>14</v>
       </c>
     </row>

--- a/testData/MoneyControlData.xlsx
+++ b/testData/MoneyControlData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
   <si>
     <t>Principle</t>
   </si>
@@ -170,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +191,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -579,7 +589,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="13">
+      <c r="H2" t="s" s="23">
         <v>13</v>
       </c>
     </row>
@@ -605,7 +615,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="14">
+      <c r="H3" t="s" s="24">
         <v>13</v>
       </c>
     </row>
@@ -631,7 +641,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="H4" t="s" s="25">
         <v>13</v>
       </c>
     </row>
@@ -657,7 +667,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s" s="16">
+      <c r="H5" t="s" s="26">
         <v>13</v>
       </c>
     </row>
@@ -683,7 +693,7 @@
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" t="s" s="17">
+      <c r="H6" t="s" s="27">
         <v>14</v>
       </c>
     </row>
